--- a/Example_2/Average_data.xlsx
+++ b/Example_2/Average_data.xlsx
@@ -13719,640 +13719,640 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4387046733554885</v>
+        <v>-0.3136275508527488</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2002855526719101</v>
+        <v>-0.3218428576123032</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07287031524258149</v>
+        <v>-0.3062337747691499</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04057516518737756</v>
+        <v>-0.2980184680095955</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04057516518737756</v>
+        <v>-0.2980184680095955</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1846764698287568</v>
+        <v>-0.2750156090828432</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3070419566722785</v>
+        <v>-0.2750156090828432</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4154279708700843</v>
+        <v>-0.2437974433965364</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1690673869856034</v>
+        <v>-0.228188360553383</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07151948731503248</v>
+        <v>-0.2051855016266307</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07151948731503248</v>
+        <v>-0.2051855016266307</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3446753552295241</v>
+        <v>-0.1895764187834774</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.3998188880269309</v>
+        <v>-0.1969701948670763</v>
       </c>
       <c r="O21" t="n">
-        <v>0.08712857015818583</v>
+        <v>-0.1583582530971706</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08712857015818583</v>
+        <v>-0.1583582530971706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1027376530013392</v>
+        <v>-0.1115310045677105</v>
       </c>
       <c r="R21" t="n">
-        <v>0.09999921741482108</v>
+        <v>-0.1197463113272649</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.1463613664696598</v>
+        <v>-0.1353553941704183</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.1225139820147951</v>
+        <v>-0.08852814564095822</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1052022450292055</v>
+        <v>-0.1041372284841116</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1307853238026618</v>
+        <v>-0.08031283888140382</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3731550853293127</v>
+        <v>-0.1041372284841116</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.1176077928112194</v>
+        <v>-0.0490946731950971</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1183467358444926</v>
+        <v>-0.06470375603825046</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1183467358444926</v>
+        <v>-0.06470375603825046</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.1145725188138925</v>
+        <v>-0.06470375603825046</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.1662509687428499</v>
+        <v>-0.02609181426834477</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1336819751289941</v>
+        <v>-0.01869803818474581</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.1069048991716418</v>
+        <v>-0.04170089711149814</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.1284789475146097</v>
+        <v>-0.03430712102789917</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.1022725535267179</v>
+        <v>-0.003088955341592447</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.3455978634138719</v>
+        <v>-0.03430712102789917</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.1017018715572573</v>
+        <v>-0.02609181426834477</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.4095762786300039</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-0.1074755811411023</v>
+        <v>-0.01869803818474581</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.4120408706578702</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.08609278871410396</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="AM21" t="n">
-        <v>-0.09403425191500653</v>
+        <v>-0.003088955341592447</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.1336819751289941</v>
+        <v>-0.01869803818474581</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.4147793062443883</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="AP21" t="n">
-        <v>-0.3272503449842004</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.1766570239716188</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.1416234383298967</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="AS21" t="n">
-        <v>-0.09129581632848839</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="AT21" t="n">
-        <v>-0.09403425191500653</v>
+        <v>-0.003088955341592447</v>
       </c>
       <c r="AU21" t="n">
-        <v>-0.09706952591233343</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="AV21" t="n">
-        <v>-0.3272503449842004</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.1468264659442811</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.1544940855865319</v>
+        <v>0.04373829318786764</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.144088030357763</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.1572325211730501</v>
+        <v>0.05195359994742205</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.1492910579721475</v>
+        <v>0.02812921034471428</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.1520294935586656</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="BC21" t="n">
-        <v>-0.08392503509704639</v>
+        <v>0.05195359994742205</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.1870630792003877</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="BE21" t="n">
-        <v>-0.08912806271143085</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.1468264659442811</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="BG21" t="n">
-        <v>-0.09186649829794898</v>
+        <v>0.02812921034471428</v>
       </c>
       <c r="BH21" t="n">
-        <v>0.4147793062443883</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="BI21" t="n">
-        <v>-0.08609278871410396</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="BJ21" t="n">
-        <v>-0.1047371455545842</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="BK21" t="n">
-        <v>-0.09129581632848839</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.144088030357763</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="BM21" t="n">
-        <v>-0.09433109032581531</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.1468264659442811</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="BO21" t="n">
-        <v>-0.09129581632848839</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="BP21" t="n">
-        <v>-0.09706952591233343</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="BQ21" t="n">
-        <v>-0.09403425191500653</v>
+        <v>-0.003088955341592447</v>
       </c>
       <c r="BR21" t="n">
-        <v>-0.1017018715572573</v>
+        <v>-0.02609181426834477</v>
       </c>
       <c r="BS21" t="n">
-        <v>-0.09649884394287285</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="BT21" t="n">
-        <v>-0.09649884394287285</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="BU21" t="n">
-        <v>-0.1126786087554868</v>
+        <v>-0.03430712102789917</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.1416234383298967</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="BW21" t="n">
-        <v>-0.1074755811411023</v>
+        <v>-0.01869803818474581</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.3991702234012349</v>
+        <v>-0.02609181426834477</v>
       </c>
       <c r="BY21" t="n">
-        <v>0.1364204107155123</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="BZ21" t="n">
-        <v>-0.1074755811411023</v>
+        <v>-0.01869803818474581</v>
       </c>
       <c r="CA21" t="n">
-        <v>-0.3428594278273538</v>
+        <v>-0.02609181426834477</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.1364204107155123</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.1388850027433786</v>
+        <v>-0.003088955341592447</v>
       </c>
       <c r="CD21" t="n">
-        <v>0.1384529434449125</v>
+        <v>-0.0573099799546515</v>
       </c>
       <c r="CE21" t="n">
-        <v>-0.1044403071437754</v>
+        <v>-0.03430712102789917</v>
       </c>
       <c r="CF21" t="n">
-        <v>-0.1126786087554868</v>
+        <v>-0.03430712102789917</v>
       </c>
       <c r="CG21" t="n">
-        <v>-0.1047371455545842</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.1312173831011278</v>
+        <v>-0.02609181426834477</v>
       </c>
       <c r="CI21" t="n">
-        <v>-0.3505270474696046</v>
+        <v>-0.0490946731950971</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.1284789475146097</v>
+        <v>-0.03430712102789917</v>
       </c>
       <c r="CK21" t="n">
-        <v>0.143655971059297</v>
+        <v>-0.04170089711149814</v>
       </c>
       <c r="CL21" t="n">
-        <v>-0.3505270474696046</v>
+        <v>-0.0490946731950971</v>
       </c>
       <c r="CM21" t="n">
-        <v>-0.1069048991716418</v>
+        <v>-0.04170089711149814</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.1208113278723589</v>
+        <v>-0.0573099799546515</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.3072987913142438</v>
+        <v>0.5021524103710032</v>
       </c>
       <c r="CP21" t="n">
-        <v>0.5921131012288162</v>
+        <v>0.5801978245867701</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.6037313617141397</v>
+        <v>0.5875916006703691</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.5532273159002586</v>
+        <v>0.4635404686010975</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.2632099783713018</v>
+        <v>0.3698859715421774</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.497480060957236</v>
+        <v>0.2688376983996583</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.2114535457861091</v>
+        <v>0.2146166737865992</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.1958444629429558</v>
+        <v>0.1677894252571391</v>
       </c>
       <c r="CW21" t="n">
-        <v>-0.07899585104131375</v>
+        <v>0.06674115211461996</v>
       </c>
       <c r="CX21" t="n">
-        <v>-0.0707575494296024</v>
+        <v>0.06674115211461996</v>
       </c>
       <c r="CY21" t="n">
-        <v>-0.3119151056996989</v>
+        <v>0.06674115211461996</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.1701031684296853</v>
+        <v>0.09056554171732774</v>
       </c>
       <c r="DA21" t="n">
-        <v>0.1520294935586656</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="DB21" t="n">
-        <v>0.4028872022004131</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="DC21" t="n">
-        <v>0.1669326735447011</v>
+        <v>0.02812921034471428</v>
       </c>
       <c r="DD21" t="n">
-        <v>0.1364204107155123</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="DE21" t="n">
-        <v>0.144088030357763</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="DF21" t="n">
-        <v>0.1513235907015478</v>
+        <v>-0.01869803818474581</v>
       </c>
       <c r="DG21" t="n">
-        <v>0.4095762786300039</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="DH21" t="n">
-        <v>0.3964317878147168</v>
+        <v>-0.03430712102789917</v>
       </c>
       <c r="DI21" t="n">
-        <v>0.1364204107155123</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="DJ21" t="n">
-        <v>0.1468264659442811</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="DK21" t="n">
-        <v>0.1312173831011278</v>
+        <v>-0.02609181426834477</v>
       </c>
       <c r="DL21" t="n">
-        <v>-0.3299887805707185</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="DM21" t="n">
-        <v>0.1388850027433786</v>
+        <v>-0.003088955341592447</v>
       </c>
       <c r="DN21" t="n">
-        <v>-0.09649884394287285</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="DO21" t="n">
-        <v>-0.09953411794019974</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="DP21" t="n">
-        <v>0.1520294935586656</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="DQ21" t="n">
-        <v>-0.1126786087554868</v>
+        <v>-0.03430712102789917</v>
       </c>
       <c r="DR21" t="n">
-        <v>-0.09433109032581531</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="DS21" t="n">
-        <v>-0.08609278871410396</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="DT21" t="n">
-        <v>0.1388850027433786</v>
+        <v>-0.003088955341592447</v>
       </c>
       <c r="DU21" t="n">
-        <v>0.1416234383298967</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="DV21" t="n">
-        <v>0.1468264659442811</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="DW21" t="n">
-        <v>0.4004226101725468</v>
+        <v>0.005126351417961954</v>
       </c>
       <c r="DX21" t="n">
-        <v>0.4147793062443883</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="DY21" t="n">
-        <v>0.1492910579721475</v>
+        <v>0.02812921034471428</v>
       </c>
       <c r="DZ21" t="n">
-        <v>0.144088030357763</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="EA21" t="n">
-        <v>-0.09186649829794898</v>
+        <v>0.02812921034471428</v>
       </c>
       <c r="EB21" t="n">
-        <v>-0.07568673348533504</v>
+        <v>0.05195359994742205</v>
       </c>
       <c r="EC21" t="n">
-        <v>0.144088030357763</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="ED21" t="n">
-        <v>0.4108286654013157</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="EE21" t="n">
-        <v>-0.3195827253419496</v>
+        <v>0.04373829318786764</v>
       </c>
       <c r="EF21" t="n">
-        <v>0.4108286654013157</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="EG21" t="n">
-        <v>-0.08883122430062208</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="EH21" t="n">
-        <v>0.1520294935586656</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="EI21" t="n">
-        <v>0.144088030357763</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="EJ21" t="n">
-        <v>0.4108286654013157</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="EK21" t="n">
-        <v>0.1492910579721475</v>
+        <v>0.02812921034471428</v>
       </c>
       <c r="EL21" t="n">
-        <v>-0.07322214145746872</v>
+        <v>0.05934737603102101</v>
       </c>
       <c r="EM21" t="n">
-        <v>-0.3168442897554315</v>
+        <v>0.05195359994742205</v>
       </c>
       <c r="EN21" t="n">
-        <v>-0.0707575494296024</v>
+        <v>0.06674115211461996</v>
       </c>
       <c r="EO21" t="n">
-        <v>0.1520294935586656</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="EP21" t="n">
-        <v>0.4251853614731573</v>
+        <v>0.05195359994742205</v>
       </c>
       <c r="EQ21" t="n">
-        <v>-0.08912806271143085</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="ER21" t="n">
-        <v>-0.09186649829794898</v>
+        <v>0.02812921034471428</v>
       </c>
       <c r="ES21" t="n">
-        <v>-0.09649884394287285</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="ET21" t="n">
-        <v>-0.08912806271143085</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="EU21" t="n">
-        <v>0.1596971132009164</v>
+        <v>0.05934737603102101</v>
       </c>
       <c r="EV21" t="n">
-        <v>-0.08392503509704639</v>
+        <v>0.05195359994742205</v>
       </c>
       <c r="EW21" t="n">
-        <v>0.1468264659442811</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="EX21" t="n">
-        <v>0.1572325211730501</v>
+        <v>0.05195359994742205</v>
       </c>
       <c r="EY21" t="n">
-        <v>0.1621617052287827</v>
+        <v>0.06674115211461996</v>
       </c>
       <c r="EZ21" t="n">
-        <v>0.4043732510156194</v>
+        <v>-0.01048273142519141</v>
       </c>
       <c r="FA21" t="n">
-        <v>-0.08392503509704639</v>
+        <v>0.05195359994742205</v>
       </c>
       <c r="FB21" t="n">
-        <v>0.1544940855865319</v>
+        <v>0.04373829318786764</v>
       </c>
       <c r="FC21" t="n">
-        <v>0.1520294935586656</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="FD21" t="n">
-        <v>-0.0808897610997195</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="FE21" t="n">
-        <v>-0.0808897610997195</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="FF21" t="n">
-        <v>0.1468264659442811</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="FG21" t="n">
-        <v>-0.08666347068356452</v>
+        <v>0.04373829318786764</v>
       </c>
       <c r="FH21" t="n">
-        <v>-0.3272503449842004</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="FI21" t="n">
-        <v>0.1544940855865319</v>
+        <v>0.04373829318786764</v>
       </c>
       <c r="FJ21" t="n">
-        <v>-0.08883122430062208</v>
+        <v>0.01252012750156092</v>
       </c>
       <c r="FK21" t="n">
-        <v>0.1644680815168348</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="FL21" t="n">
-        <v>-0.07322214145746872</v>
+        <v>0.05934737603102101</v>
       </c>
       <c r="FM21" t="n">
-        <v>-0.09433109032581531</v>
+        <v>0.02073543426111532</v>
       </c>
       <c r="FN21" t="n">
-        <v>0.1673647328431672</v>
+        <v>0.08235023495777333</v>
       </c>
       <c r="FO21" t="n">
-        <v>-0.08392503509704639</v>
+        <v>0.05195359994742205</v>
       </c>
       <c r="FP21" t="n">
-        <v>0.4199823338587728</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="FQ21" t="n">
-        <v>0.1544940855865319</v>
+        <v>0.04373829318786764</v>
       </c>
       <c r="FR21" t="n">
-        <v>0.1492910579721475</v>
+        <v>0.02812921034471428</v>
       </c>
       <c r="FS21" t="n">
-        <v>-0.08666347068356452</v>
+        <v>0.04373829318786764</v>
       </c>
       <c r="FT21" t="n">
-        <v>-0.3091766701131807</v>
+        <v>0.07495645887417438</v>
       </c>
       <c r="FU21" t="n">
-        <v>0.1520294935586656</v>
+        <v>0.03634451710426868</v>
       </c>
       <c r="FV21" t="n">
-        <v>0.1544940855865319</v>
+        <v>0.04373829318786764</v>
       </c>
       <c r="FW21" t="n">
-        <v>0.1621617052287827</v>
+        <v>0.06674115211461996</v>
       </c>
       <c r="FX21" t="n">
-        <v>0.1649001408153008</v>
+        <v>0.07495645887417438</v>
       </c>
       <c r="FY21" t="n">
-        <v>0.1621617052287827</v>
+        <v>0.06674115211461996</v>
       </c>
       <c r="FZ21" t="n">
-        <v>0.1971952908705048</v>
+        <v>0.06674115211461996</v>
       </c>
       <c r="GA21" t="n">
-        <v>0.2062505181717247</v>
+        <v>0.1990075909434458</v>
       </c>
       <c r="GB21" t="n">
-        <v>0.299631171671993</v>
+        <v>0.4791495514442509</v>
       </c>
       <c r="GC21" t="n">
-        <v>0.3694612791282054</v>
+        <v>0.6886398738128882</v>
       </c>
       <c r="GD21" t="n">
-        <v>0.1880016186442043</v>
+        <v>0.8677335611711742</v>
       </c>
       <c r="GE21" t="n">
-        <v>0.2085398855430903</v>
+        <v>0.9293483618678321</v>
       </c>
       <c r="GF21" t="n">
-        <v>0.2474256708716478</v>
+        <v>1.046005717853505</v>
       </c>
       <c r="GG21" t="n">
-        <v>0.486118635113878</v>
+        <v>1.038611941769906</v>
       </c>
       <c r="GH21" t="n">
-        <v>0.2345550236150126</v>
+        <v>1.007393776083599</v>
       </c>
       <c r="GI21" t="n">
-        <v>0.7164380768567394</v>
+        <v>0.9531727514705399</v>
       </c>
       <c r="GJ21" t="n">
-        <v>0.4549004694275712</v>
+        <v>0.9449574447109855</v>
       </c>
       <c r="GK21" t="n">
-        <v>0.2320904315871463</v>
+        <v>1</v>
       </c>
       <c r="GL21" t="n">
-        <v>0.431623766942167</v>
+        <v>0.8751273372547731</v>
       </c>
       <c r="GM21" t="n">
-        <v>0.4496974418131868</v>
+        <v>0.9293483618678321</v>
       </c>
       <c r="GN21" t="n">
-        <v>0.442029822170936</v>
+        <v>0.9063455029410799</v>
       </c>
       <c r="GO21" t="n">
-        <v>0.1775955634154354</v>
+        <v>0.8365153954848674</v>
       </c>
       <c r="GP21" t="n">
-        <v>0.1984076738729732</v>
+        <v>0.8989517268574808</v>
       </c>
       <c r="GQ21" t="n">
-        <v>0.4212177117133982</v>
+        <v>0.8439091715684663</v>
       </c>
       <c r="GR21" t="n">
-        <v>0.1962399202559157</v>
+        <v>0.8677335611711742</v>
       </c>
       <c r="GS21" t="n">
-        <v>0.4058824724288967</v>
+        <v>0.7979034537149617</v>
       </c>
       <c r="GT21" t="n">
-        <v>0.4291591749143008</v>
+        <v>0.8677335611711742</v>
       </c>
       <c r="GU21" t="n">
-        <v>0.1699279437731846</v>
+        <v>0.8135125365581151</v>
       </c>
       <c r="GV21" t="n">
-        <v>0.1671895081866665</v>
+        <v>0.8052972297985607</v>
       </c>
       <c r="GW21" t="n">
-        <v>-0.08133882931487198</v>
+        <v>0.7584699812691006</v>
       </c>
       <c r="GX21" t="n">
-        <v>0.3826057699434925</v>
+        <v>0.7280733462587493</v>
       </c>
       <c r="GY21" t="n">
-        <v>0.9455051318282891</v>
+        <v>0.8365153954848674</v>
       </c>
       <c r="GZ21" t="n">
-        <v>0.6463341258418752</v>
+        <v>0.7428608984259473</v>
       </c>
       <c r="HA21" t="n">
-        <v>0.3902733895857433</v>
+        <v>0.7510762051855017</v>
       </c>
       <c r="HB21" t="n">
-        <v>-0.07339736611396941</v>
+        <v>0.7822943708718083</v>
       </c>
       <c r="HC21" t="n">
-        <v>0.4336562996715674</v>
+        <v>0.828300088725313</v>
       </c>
       <c r="HD21" t="n">
-        <v>0.3826057699434925</v>
+        <v>0.7280733462587493</v>
       </c>
       <c r="HE21" t="n">
-        <v>0.3875349539992252</v>
+        <v>0.7428608984259473</v>
       </c>
     </row>
     <row r="22">
@@ -15005,640 +15005,640 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.5993345746391227</v>
+        <v>-1.374815905743741</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5982821852380709</v>
+        <v>-1.351385727674387</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.8307275066947941</v>
+        <v>-1.303688579461775</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.3035719862568853</v>
+        <v>-1.23256125317981</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5307176245788736</v>
+        <v>-1.168965055562994</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.4938987733270326</v>
+        <v>-1.058508501807471</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0593925792747589</v>
+        <v>-0.9714821261213015</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1822371355405912</v>
+        <v>-0.8685567010309279</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1451393535974484</v>
+        <v>-0.7572633552014996</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.6223662802923305</v>
+        <v>-0.6786049002543848</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.07931171045021763</v>
+        <v>-0.5597804257598072</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.5668590727232673</v>
+        <v>-0.5120832775471951</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.2920162861886667</v>
+        <v>-0.4325880305261749</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.007905453476950356</v>
+        <v>-0.3455616548400054</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2942522213508958</v>
+        <v>-0.2669031998928906</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.4823430732588141</v>
+        <v>-0.2585352791538359</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.2049899105024972</v>
+        <v>-0.1715089034676664</v>
       </c>
       <c r="S23" t="n">
-        <v>0.07382123907448447</v>
+        <v>-0.1003815771857009</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.4112157469768487</v>
+        <v>-0.04515330030793951</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08693098156567025</v>
+        <v>-0.06105234971214356</v>
       </c>
       <c r="V23" t="n">
-        <v>0.09223066470040493</v>
+        <v>-0.04515330030793951</v>
       </c>
       <c r="W23" t="n">
-        <v>0.6360791006696067</v>
+        <v>-0.02925425090373547</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.153324399247504</v>
+        <v>-0.03678537956888475</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.1296152904868488</v>
+        <v>0.0343419467130807</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.3890660499010332</v>
+        <v>-0.004987280760476667</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.9697333371220759</v>
+        <v>0.1213683223992502</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.1530375554042029</v>
+        <v>0.1372673718034542</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.1137162410826448</v>
+        <v>0.08203909492569283</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.1555479316259193</v>
+        <v>0.1447985004686035</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.1555479316259193</v>
+        <v>0.1447985004686035</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.1293284466435477</v>
+        <v>0.06614004552148879</v>
       </c>
       <c r="AG23" t="n">
-        <v>-0.3663079056772549</v>
+        <v>0.08957022359084212</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.1636369216736722</v>
+        <v>0.1690654706118623</v>
       </c>
       <c r="AI23" t="n">
-        <v>-0.1112058648609284</v>
+        <v>0.08957022359084212</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.3557085394077855</v>
+        <v>0.1213683223992502</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.160847614760654</v>
+        <v>0.1606975498728076</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.09425442605567254</v>
+        <v>0.1606975498728076</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.160847614760654</v>
+        <v>0.1606975498728076</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.1502482484911846</v>
+        <v>0.1288994510643995</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.08219707296553851</v>
+        <v>0.1765965992770116</v>
       </c>
       <c r="AP23" t="n">
-        <v>-0.3637975294555384</v>
+        <v>0.09710135225599141</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.1739573572518398</v>
+        <v>0.200026777346365</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.4470836336918129</v>
+        <v>0.1690654706118623</v>
       </c>
       <c r="AS23" t="n">
-        <v>-0.08749675610027319</v>
+        <v>0.1606975498728076</v>
       </c>
       <c r="AT23" t="n">
-        <v>-0.07835537665146851</v>
+        <v>0.2083946980854197</v>
       </c>
       <c r="AU23" t="n">
-        <v>-0.08749675610027319</v>
+        <v>0.1606975498728076</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.1502482484911846</v>
+        <v>0.1288994510643995</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.1583372385389376</v>
+        <v>0.1531664212076583</v>
       </c>
       <c r="AX23" t="n">
-        <v>-0.08895474292093786</v>
+        <v>0.1765965992770116</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.1689366048084069</v>
+        <v>0.1849645200160664</v>
       </c>
       <c r="AZ23" t="n">
-        <v>-0.07835537665146851</v>
+        <v>0.2083946980854197</v>
       </c>
       <c r="BA23" t="n">
-        <v>-0.07940776605252026</v>
+        <v>0.1849645200160664</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.1739573572518398</v>
+        <v>0.200026777346365</v>
       </c>
       <c r="BC23" t="n">
-        <v>-0.08895474292093786</v>
+        <v>0.1765965992770116</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.1739573572518398</v>
+        <v>0.200026777346365</v>
       </c>
       <c r="BE23" t="n">
-        <v>-0.3478984800513343</v>
+        <v>0.1447985004686035</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.4367858046061286</v>
+        <v>0.1606975498728076</v>
       </c>
       <c r="BG23" t="n">
-        <v>0.4236760621149427</v>
+        <v>0.1213683223992502</v>
       </c>
       <c r="BH23" t="n">
-        <v>0.1530375554042029</v>
+        <v>0.1372673718034542</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.1346281297782824</v>
+        <v>0.08203909492569283</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.1371385059999988</v>
+        <v>0.08957022359084212</v>
       </c>
       <c r="BK23" t="n">
-        <v>0.1449485653564499</v>
+        <v>0.1130004016601955</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.1371385059999988</v>
+        <v>0.08957022359084212</v>
       </c>
       <c r="BM23" t="n">
-        <v>-0.1112058648609284</v>
+        <v>0.08957022359084212</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.1265391397305295</v>
+        <v>0.05777212478243404</v>
       </c>
       <c r="BO23" t="n">
-        <v>-0.1204739110380441</v>
+        <v>0.08203909492569283</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.124028763508813</v>
+        <v>0.05024099611728475</v>
       </c>
       <c r="BQ23" t="n">
-        <v>0.1028300309698743</v>
+        <v>-0.01335520149953143</v>
       </c>
       <c r="BR23" t="n">
-        <v>-0.169223448651708</v>
+        <v>-0.08448252778149688</v>
       </c>
       <c r="BS23" t="n">
-        <v>-0.4137261231985652</v>
+        <v>-0.0526844289730888</v>
       </c>
       <c r="BT23" t="n">
-        <v>-0.165381752337638</v>
+        <v>-0.0526844289730888</v>
       </c>
       <c r="BU23" t="n">
-        <v>-0.4243254894680346</v>
+        <v>-0.08448252778149688</v>
       </c>
       <c r="BV23" t="n">
-        <v>0.3703776935838108</v>
+        <v>-0.06105234971214356</v>
       </c>
       <c r="BW23" t="n">
-        <v>-0.1823331911428938</v>
+        <v>-0.1238117552550543</v>
       </c>
       <c r="BX23" t="n">
-        <v>-0.1851224980559121</v>
+        <v>-0.132179675994109</v>
       </c>
       <c r="BY23" t="n">
-        <v>0.06601117971803334</v>
+        <v>-0.1238117552550543</v>
       </c>
       <c r="BZ23" t="n">
-        <v>-0.1720127555647263</v>
+        <v>-0.09285044852055165</v>
       </c>
       <c r="CA23" t="n">
-        <v>0.08693098156567025</v>
+        <v>-0.06105234971214356</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.05792218967028042</v>
+        <v>-0.1480787253983131</v>
       </c>
       <c r="CC23" t="n">
-        <v>-0.2102895936372319</v>
+        <v>-0.1874079528718704</v>
       </c>
       <c r="CD23" t="n">
-        <v>-0.1745231317864427</v>
+        <v>-0.1003815771857009</v>
       </c>
       <c r="CE23" t="n">
-        <v>-0.1971798511460461</v>
+        <v>-0.1480787253983131</v>
       </c>
       <c r="CF23" t="n">
-        <v>-0.2261886430414359</v>
+        <v>-0.2351051010844826</v>
       </c>
       <c r="CG23" t="n">
-        <v>0.055411813448564</v>
+        <v>-0.1556098540634623</v>
       </c>
       <c r="CH23" t="n">
-        <v>0.3335588423319699</v>
+        <v>-0.1715089034676664</v>
       </c>
       <c r="CI23" t="n">
-        <v>0.03951276404435995</v>
+        <v>-0.2033070022760745</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0.07712548142328983</v>
+        <v>-0.1957758736109252</v>
       </c>
       <c r="CK23" t="n">
-        <v>-0.2010215474601161</v>
+        <v>-0.1798768242067212</v>
       </c>
       <c r="CL23" t="n">
-        <v>0.055411813448564</v>
+        <v>-0.1556098540634623</v>
       </c>
       <c r="CM23" t="n">
-        <v>0.3154509538898346</v>
+        <v>-0.2033070022760745</v>
       </c>
       <c r="CN23" t="n">
-        <v>0.03170270468790884</v>
+        <v>-0.2267371803454278</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.8733654661489713</v>
+        <v>0.6200963984469139</v>
       </c>
       <c r="CP23" t="n">
-        <v>0.3666984649414011</v>
+        <v>0.7782501004150488</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0.3535887224502153</v>
+        <v>0.7389208729414914</v>
       </c>
       <c r="CR23" t="n">
-        <v>0.02853841148128615</v>
+        <v>0.5088030526174856</v>
       </c>
       <c r="CS23" t="n">
-        <v>0.2768827823422133</v>
+        <v>0.5088030526174856</v>
       </c>
       <c r="CT23" t="n">
-        <v>-0.3108006981081916</v>
+        <v>0.2560918462980318</v>
       </c>
       <c r="CU23" t="n">
-        <v>0.1979453967037967</v>
+        <v>0.2719908957022359</v>
       </c>
       <c r="CV23" t="n">
-        <v>0.1449485653564499</v>
+        <v>0.1130004016601955</v>
       </c>
       <c r="CW23" t="n">
-        <v>0.1371385059999988</v>
+        <v>0.08957022359084212</v>
       </c>
       <c r="CX23" t="n">
-        <v>0.1632743381638816</v>
+        <v>0.1054692729950462</v>
       </c>
       <c r="CY23" t="n">
-        <v>-0.149482702933434</v>
+        <v>-0.004987280760476667</v>
       </c>
       <c r="CZ23" t="n">
-        <v>0.07912092220921914</v>
+        <v>-0.08448252778149688</v>
       </c>
       <c r="DA23" t="n">
-        <v>-0.4271147963810528</v>
+        <v>-0.09285044852055165</v>
       </c>
       <c r="DB23" t="n">
-        <v>-0.1639237655169733</v>
+        <v>-0.06858347837729284</v>
       </c>
       <c r="DC23" t="n">
-        <v>-0.1812808017418421</v>
+        <v>-0.1003815771857009</v>
       </c>
       <c r="DD23" t="n">
-        <v>-0.1639237655169733</v>
+        <v>-0.06858347837729284</v>
       </c>
       <c r="DE23" t="n">
-        <v>-0.1904221811906467</v>
+        <v>-0.1480787253983131</v>
       </c>
       <c r="DF23" t="n">
-        <v>-0.173470742385391</v>
+        <v>-0.0769513991163476</v>
       </c>
       <c r="DG23" t="n">
-        <v>0.07382123907448447</v>
+        <v>-0.1003815771857009</v>
       </c>
       <c r="DH23" t="n">
-        <v>0.3547575748709086</v>
+        <v>-0.1079127058508502</v>
       </c>
       <c r="DI23" t="n">
-        <v>-0.1787704255201256</v>
+        <v>-0.09285044852055165</v>
       </c>
       <c r="DJ23" t="n">
-        <v>-0.1996902273677625</v>
+        <v>-0.1556098540634623</v>
       </c>
       <c r="DK23" t="n">
-        <v>-0.1823331911428938</v>
+        <v>-0.1238117552550543</v>
       </c>
       <c r="DL23" t="n">
-        <v>0.06852155593974979</v>
+        <v>-0.116280626589905</v>
       </c>
       <c r="DM23" t="n">
-        <v>-0.1890908610982932</v>
+        <v>-0.1238117552550543</v>
       </c>
       <c r="DN23" t="n">
-        <v>0.07382123907448447</v>
+        <v>-0.1003815771857009</v>
       </c>
       <c r="DO23" t="n">
-        <v>-0.1745231317864427</v>
+        <v>-0.1003815771857009</v>
       </c>
       <c r="DP23" t="n">
-        <v>-0.1971798511460461</v>
+        <v>-0.1480787253983131</v>
       </c>
       <c r="DQ23" t="n">
-        <v>-0.1600820692029033</v>
+        <v>-0.03678537956888475</v>
       </c>
       <c r="DR23" t="n">
-        <v>0.07382123907448447</v>
+        <v>-0.1003815771857009</v>
       </c>
       <c r="DS23" t="n">
-        <v>0.08163129843093557</v>
+        <v>-0.0769513991163476</v>
       </c>
       <c r="DT23" t="n">
-        <v>-0.4402245388722386</v>
+        <v>-0.132179675994109</v>
       </c>
       <c r="DU23" t="n">
-        <v>0.09223066470040493</v>
+        <v>-0.04515330030793951</v>
       </c>
       <c r="DV23" t="n">
-        <v>0.3441582086014393</v>
+        <v>-0.1397108046592583</v>
       </c>
       <c r="DW23" t="n">
-        <v>0.0950199716134232</v>
+        <v>-0.03678537956888475</v>
       </c>
       <c r="DX23" t="n">
-        <v>0.05792218967028042</v>
+        <v>-0.1480787253983131</v>
       </c>
       <c r="DY23" t="n">
-        <v>0.06601117971803334</v>
+        <v>-0.1238117552550543</v>
       </c>
       <c r="DZ23" t="n">
-        <v>0.08442060534395383</v>
+        <v>-0.06858347837729284</v>
       </c>
       <c r="EA23" t="n">
-        <v>0.08693098156567025</v>
+        <v>-0.06105234971214356</v>
       </c>
       <c r="EB23" t="n">
-        <v>-0.1586240823822387</v>
+        <v>-0.0526844289730888</v>
       </c>
       <c r="EC23" t="n">
-        <v>0.6834136653724282</v>
+        <v>0.05024099611728475</v>
       </c>
       <c r="ED23" t="n">
-        <v>0.1187290803740784</v>
+        <v>0.0343419467130807</v>
       </c>
       <c r="EE23" t="n">
-        <v>-0.1402146567563182</v>
+        <v>0.002543847904672616</v>
       </c>
       <c r="EF23" t="n">
-        <v>0.1028300309698743</v>
+        <v>-0.01335520149953143</v>
       </c>
       <c r="EG23" t="n">
-        <v>0.09753034783513963</v>
+        <v>-0.02925425090373547</v>
       </c>
       <c r="EH23" t="n">
-        <v>0.1056193378828926</v>
+        <v>-0.004987280760476667</v>
       </c>
       <c r="EI23" t="n">
-        <v>0.09753034783513963</v>
+        <v>-0.02925425090373547</v>
       </c>
       <c r="EJ23" t="n">
-        <v>-0.1324045973998671</v>
+        <v>0.02597402597402594</v>
       </c>
       <c r="EK23" t="n">
-        <v>0.108129714104609</v>
+        <v>0.002543847904672616</v>
       </c>
       <c r="EL23" t="n">
-        <v>-0.1324045973998671</v>
+        <v>0.02597402597402594</v>
       </c>
       <c r="EM23" t="n">
-        <v>0.0950199716134232</v>
+        <v>-0.03678537956888475</v>
       </c>
       <c r="EN23" t="n">
-        <v>-0.1377042805346017</v>
+        <v>0.0100749765698219</v>
       </c>
       <c r="EO23" t="n">
-        <v>0.1457424314835389</v>
+        <v>0.0100749765698219</v>
       </c>
       <c r="EP23" t="n">
-        <v>0.4152855348834047</v>
+        <v>0.07367117418663807</v>
       </c>
       <c r="EQ23" t="n">
-        <v>-0.1377042805346017</v>
+        <v>0.0100749765698219</v>
       </c>
       <c r="ER23" t="n">
-        <v>-0.1285629010857971</v>
+        <v>0.05777212478243404</v>
       </c>
       <c r="ES23" t="n">
-        <v>-0.1377042805346017</v>
+        <v>0.0100749765698219</v>
       </c>
       <c r="ET23" t="n">
-        <v>0.4074754755269536</v>
+        <v>0.05024099611728475</v>
       </c>
       <c r="EU23" t="n">
-        <v>0.165784714385598</v>
+        <v>0.1130004016601955</v>
       </c>
       <c r="EV23" t="n">
-        <v>-0.3847173313031753</v>
+        <v>0.0343419467130807</v>
       </c>
       <c r="EW23" t="n">
-        <v>-0.1416726435769829</v>
+        <v>0.01844289730887666</v>
       </c>
       <c r="EX23" t="n">
-        <v>-0.1444619504900011</v>
+        <v>0.0100749765698219</v>
       </c>
       <c r="EY23" t="n">
-        <v>0.1212394565957948</v>
+        <v>0.04187307537822999</v>
       </c>
       <c r="EZ23" t="n">
-        <v>0.1501645956726958</v>
+        <v>0.06614004552148879</v>
       </c>
       <c r="FA23" t="n">
-        <v>-0.1427250329780346</v>
+        <v>-0.004987280760476667</v>
       </c>
       <c r="FB23" t="n">
-        <v>0.1187290803740784</v>
+        <v>0.0343419467130807</v>
       </c>
       <c r="FC23" t="n">
-        <v>0.3893675870848183</v>
+        <v>0.01844289730887666</v>
       </c>
       <c r="FD23" t="n">
-        <v>0.1159397734610601</v>
+        <v>0.02597402597402594</v>
       </c>
       <c r="FE23" t="n">
-        <v>-0.3794176481684406</v>
+        <v>0.05024099611728475</v>
       </c>
       <c r="FF23" t="n">
-        <v>-0.1190159242173795</v>
+        <v>0.06614004552148879</v>
       </c>
       <c r="FG23" t="n">
-        <v>-0.1391622673552664</v>
+        <v>0.02597402597402594</v>
       </c>
       <c r="FH23" t="n">
-        <v>-0.100606498591459</v>
+        <v>0.1213683223992502</v>
       </c>
       <c r="FI23" t="n">
-        <v>0.1346281297782824</v>
+        <v>0.08203909492569283</v>
       </c>
       <c r="FJ23" t="n">
-        <v>1.185703627412802</v>
+        <v>0.08957022359084212</v>
       </c>
       <c r="FK23" t="n">
-        <v>0.1449485653564499</v>
+        <v>0.1130004016601955</v>
       </c>
       <c r="FL23" t="n">
-        <v>-0.100606498591459</v>
+        <v>0.1213683223992502</v>
       </c>
       <c r="FM23" t="n">
-        <v>0.1265391397305295</v>
+        <v>0.05777212478243404</v>
       </c>
       <c r="FN23" t="n">
-        <v>-0.1190159242173795</v>
+        <v>0.06614004552148879</v>
       </c>
       <c r="FO23" t="n">
-        <v>0.1371385059999988</v>
+        <v>0.08957022359084212</v>
       </c>
       <c r="FP23" t="n">
-        <v>-0.3637975294555384</v>
+        <v>0.09710135225599141</v>
       </c>
       <c r="FQ23" t="n">
-        <v>0.1371385059999988</v>
+        <v>0.08957022359084212</v>
       </c>
       <c r="FR23" t="n">
-        <v>0.4236760621149427</v>
+        <v>0.1213683223992502</v>
       </c>
       <c r="FS23" t="n">
-        <v>-0.1033958055044772</v>
+        <v>0.1130004016601955</v>
       </c>
       <c r="FT23" t="n">
-        <v>0.1477378722694682</v>
+        <v>0.1213683223992502</v>
       </c>
       <c r="FU23" t="n">
-        <v>-0.1073641685468583</v>
+        <v>0.1213683223992502</v>
       </c>
       <c r="FV23" t="n">
-        <v>0.1424381891347335</v>
+        <v>0.1054692729950462</v>
       </c>
       <c r="FW23" t="n">
-        <v>-0.1204739110380441</v>
+        <v>0.08203909492569283</v>
       </c>
       <c r="FX23" t="n">
-        <v>0.1530375554042029</v>
+        <v>0.1372673718034542</v>
       </c>
       <c r="FY23" t="n">
-        <v>-0.3478984800513343</v>
+        <v>0.1447985004686035</v>
       </c>
       <c r="FZ23" t="n">
-        <v>-0.1086954886392119</v>
+        <v>0.09710135225599141</v>
       </c>
       <c r="GA23" t="n">
-        <v>0.4526848540103326</v>
+        <v>0.2083946980854197</v>
       </c>
       <c r="GB23" t="n">
-        <v>-0.2318633124697751</v>
+        <v>0.4929040032132815</v>
       </c>
       <c r="GC23" t="n">
-        <v>0.06947788973849893</v>
+        <v>0.651894497255322</v>
       </c>
       <c r="GD23" t="n">
-        <v>-0.1498576892270384</v>
+        <v>0.7389208729414914</v>
       </c>
       <c r="GE23" t="n">
-        <v>0.134253143484678</v>
+        <v>0.825947248627661</v>
       </c>
       <c r="GF23" t="n">
-        <v>0.3957072568367909</v>
+        <v>0.8652764761012184</v>
       </c>
       <c r="GG23" t="n">
-        <v>0.1565042654246684</v>
+        <v>0.9129736243138304</v>
       </c>
       <c r="GH23" t="n">
-        <v>0.3878971974803398</v>
+        <v>0.8418462980318651</v>
       </c>
       <c r="GI23" t="n">
-        <v>0.1844606679190065</v>
+        <v>0.9765698219306467</v>
       </c>
       <c r="GJ23" t="n">
-        <v>0.4406150981363848</v>
+        <v>1</v>
       </c>
       <c r="GK23" t="n">
-        <v>0.1526625691105984</v>
+        <v>0.8811755255054224</v>
       </c>
       <c r="GL23" t="n">
-        <v>0.1367635197063944</v>
+        <v>0.8334783772928103</v>
       </c>
       <c r="GM23" t="n">
-        <v>0.1194064834815256</v>
+        <v>0.8016802784844022</v>
       </c>
       <c r="GN23" t="n">
-        <v>0.138094839798748</v>
+        <v>0.8577453474360691</v>
       </c>
       <c r="GO23" t="n">
-        <v>0.4255099148592696</v>
+        <v>0.8493774266970143</v>
       </c>
       <c r="GP23" t="n">
-        <v>0.3851078905673215</v>
+        <v>0.8334783772928103</v>
       </c>
       <c r="GQ23" t="n">
-        <v>0.1105440347240228</v>
+        <v>0.7548199223456955</v>
       </c>
       <c r="GR23" t="n">
-        <v>0.126164153436925</v>
+        <v>0.8016802784844022</v>
       </c>
       <c r="GS23" t="n">
-        <v>0.3535887224502153</v>
+        <v>0.7389208729414914</v>
       </c>
       <c r="GT23" t="n">
-        <v>0.3666984649414011</v>
+        <v>0.7782501004150488</v>
       </c>
       <c r="GU23" t="n">
-        <v>0.3401163964492389</v>
+        <v>0.6359954478511179</v>
       </c>
       <c r="GV23" t="n">
-        <v>0.09994466845455345</v>
+        <v>0.7230218235372875</v>
       </c>
       <c r="GW23" t="n">
-        <v>0.334900366132993</v>
+        <v>0.6828558039898246</v>
       </c>
       <c r="GX23" t="n">
-        <v>0.3557365151621411</v>
+        <v>0.6828558039898246</v>
       </c>
       <c r="GY23" t="n">
-        <v>0.08404561905034939</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="GZ23" t="n">
-        <v>0.3139805642853561</v>
+        <v>0.6200963984469139</v>
       </c>
       <c r="HA23" t="n">
-        <v>0.3429893561807459</v>
+        <v>0.7071227741330834</v>
       </c>
       <c r="HB23" t="n">
-        <v>-0.1947655305266323</v>
+        <v>0.6041973490427098</v>
       </c>
       <c r="HC23" t="n">
-        <v>0.334900366132993</v>
+        <v>0.6828558039898246</v>
       </c>
       <c r="HD23" t="n">
-        <v>-0.1604570554965078</v>
+        <v>0.7071227741330834</v>
       </c>
       <c r="HE23" t="n">
-        <v>0.07728794909495003</v>
+        <v>0.6753246753246753</v>
       </c>
     </row>
     <row r="24">
@@ -16290,642 +16290,218 @@
           <t xml:space="preserve">F12      to H12     </t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.8300693428679776</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.4023026850402456</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-0.1356248984235332</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="M25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-0.501121974446925</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="S25" t="n">
-        <v>-0.2896825396825397</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.02114144861585128</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.5615282518012893</v>
-      </c>
-      <c r="V25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="W25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.1463299887945119</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.1463299887945119</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.09411612079117015</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0.5771924122022919</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0.1203477978222006</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0.321219715956558</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0.3500888170369039</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0.3760710080092153</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0.4023026850402456</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0.1463299887945119</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0.4023026850402456</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0.3500888170369039</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0.09411612079117015</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0.1463299887945119</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>0.03926482873851297</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>0.1463299887945119</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0.321219715956558</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>-0.1356248984235332</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0.09411612079117015</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0.321219715956558</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0.9164578111946532</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>-0.1356248984235332</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>0.3055555555555555</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>0.3500888170369039</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="CZ25" t="n">
-        <v>0.459613196814562</v>
-      </c>
-      <c r="DA25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>0.321219715956558</v>
-      </c>
-      <c r="DD25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="DE25" t="n">
-        <v>0.7312500534612982</v>
-      </c>
-      <c r="DF25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="DG25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="DH25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="DI25" t="n">
-        <v>0.09411612079117015</v>
-      </c>
-      <c r="DJ25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="DK25" t="n">
-        <v>-0.501121974446925</v>
-      </c>
-      <c r="DL25" t="n">
-        <v>0.1203477978222006</v>
-      </c>
-      <c r="DM25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="DN25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="DO25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="DP25" t="n">
-        <v>-0.501121974446925</v>
-      </c>
-      <c r="DQ25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="DR25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="DS25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="DT25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="DU25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="DV25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="DW25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="DX25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="DY25" t="n">
-        <v>0.3500888170369039</v>
-      </c>
-      <c r="DZ25" t="n">
-        <v>0.3500888170369039</v>
-      </c>
-      <c r="EA25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="EB25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="EC25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="ED25" t="n">
-        <v>0.09411612079117015</v>
-      </c>
-      <c r="EE25" t="n">
-        <v>-0.8300693428679776</v>
-      </c>
-      <c r="EF25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="EG25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="EH25" t="n">
-        <v>-0.501121974446925</v>
-      </c>
-      <c r="EI25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="EJ25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="EK25" t="n">
-        <v>0.321219715956558</v>
-      </c>
-      <c r="EL25" t="n">
-        <v>0.321219715956558</v>
-      </c>
-      <c r="EM25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="EN25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="EO25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="EP25" t="n">
-        <v>0.3500888170369039</v>
-      </c>
-      <c r="EQ25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="ER25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="ES25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="ET25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="EU25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="EV25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="EW25" t="n">
-        <v>-0.5481144556499326</v>
-      </c>
-      <c r="EX25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="EY25" t="n">
-        <v>-0.5481144556499326</v>
-      </c>
-      <c r="EZ25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="FA25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="FB25" t="n">
-        <v>0.321219715956558</v>
-      </c>
-      <c r="FC25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="FD25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="FE25" t="n">
-        <v>-0.5481144556499326</v>
-      </c>
-      <c r="FF25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="FG25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="FH25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="FI25" t="n">
-        <v>0.3500888170369039</v>
-      </c>
-      <c r="FJ25" t="n">
-        <v>0.1203477978222006</v>
-      </c>
-      <c r="FK25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="FL25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="FM25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="FN25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="FO25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="FP25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="FQ25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="FR25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="FS25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="FT25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="FU25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="FV25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="FW25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="FX25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="FY25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="FZ25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="GA25" t="n">
-        <v>-0.5481144556499326</v>
-      </c>
-      <c r="GB25" t="n">
-        <v>-0.5481144556499326</v>
-      </c>
-      <c r="GC25" t="n">
-        <v>-0.5481144556499326</v>
-      </c>
-      <c r="GD25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="GE25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="GF25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="GG25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="GH25" t="n">
-        <v>-0.5481144556499326</v>
-      </c>
-      <c r="GI25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="GJ25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="GK25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="GL25" t="n">
-        <v>-0.501121974446925</v>
-      </c>
-      <c r="GM25" t="n">
-        <v>0.321219715956558</v>
-      </c>
-      <c r="GN25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="GO25" t="n">
-        <v>0.1463299887945119</v>
-      </c>
-      <c r="GP25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="GQ25" t="n">
-        <v>-0.8300693428679776</v>
-      </c>
-      <c r="GR25" t="n">
-        <v>-0.5740966466222439</v>
-      </c>
-      <c r="GS25" t="n">
-        <v>-0.501121974446925</v>
-      </c>
-      <c r="GT25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="GU25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="GV25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="GW25" t="n">
-        <v>-0.2451492782011913</v>
-      </c>
-      <c r="GX25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="GY25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="GZ25" t="n">
-        <v>0.4023026850402456</v>
-      </c>
-      <c r="HA25" t="n">
-        <v>-0.2921417594041988</v>
-      </c>
-      <c r="HB25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
-      <c r="HC25" t="n">
-        <v>0.3500888170369039</v>
-      </c>
-      <c r="HD25" t="n">
-        <v>-0.2191670872288799</v>
-      </c>
-      <c r="HE25" t="n">
-        <v>0.03680560901685383</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr"/>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
+      <c r="BY25" t="inlineStr"/>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
+      <c r="CC25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr"/>
+      <c r="CE25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
+      <c r="CG25" t="inlineStr"/>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="inlineStr"/>
+      <c r="CJ25" t="inlineStr"/>
+      <c r="CK25" t="inlineStr"/>
+      <c r="CL25" t="inlineStr"/>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr"/>
+      <c r="CW25" t="inlineStr"/>
+      <c r="CX25" t="inlineStr"/>
+      <c r="CY25" t="inlineStr"/>
+      <c r="CZ25" t="inlineStr"/>
+      <c r="DA25" t="inlineStr"/>
+      <c r="DB25" t="inlineStr"/>
+      <c r="DC25" t="inlineStr"/>
+      <c r="DD25" t="inlineStr"/>
+      <c r="DE25" t="inlineStr"/>
+      <c r="DF25" t="inlineStr"/>
+      <c r="DG25" t="inlineStr"/>
+      <c r="DH25" t="inlineStr"/>
+      <c r="DI25" t="inlineStr"/>
+      <c r="DJ25" t="inlineStr"/>
+      <c r="DK25" t="inlineStr"/>
+      <c r="DL25" t="inlineStr"/>
+      <c r="DM25" t="inlineStr"/>
+      <c r="DN25" t="inlineStr"/>
+      <c r="DO25" t="inlineStr"/>
+      <c r="DP25" t="inlineStr"/>
+      <c r="DQ25" t="inlineStr"/>
+      <c r="DR25" t="inlineStr"/>
+      <c r="DS25" t="inlineStr"/>
+      <c r="DT25" t="inlineStr"/>
+      <c r="DU25" t="inlineStr"/>
+      <c r="DV25" t="inlineStr"/>
+      <c r="DW25" t="inlineStr"/>
+      <c r="DX25" t="inlineStr"/>
+      <c r="DY25" t="inlineStr"/>
+      <c r="DZ25" t="inlineStr"/>
+      <c r="EA25" t="inlineStr"/>
+      <c r="EB25" t="inlineStr"/>
+      <c r="EC25" t="inlineStr"/>
+      <c r="ED25" t="inlineStr"/>
+      <c r="EE25" t="inlineStr"/>
+      <c r="EF25" t="inlineStr"/>
+      <c r="EG25" t="inlineStr"/>
+      <c r="EH25" t="inlineStr"/>
+      <c r="EI25" t="inlineStr"/>
+      <c r="EJ25" t="inlineStr"/>
+      <c r="EK25" t="inlineStr"/>
+      <c r="EL25" t="inlineStr"/>
+      <c r="EM25" t="inlineStr"/>
+      <c r="EN25" t="inlineStr"/>
+      <c r="EO25" t="inlineStr"/>
+      <c r="EP25" t="inlineStr"/>
+      <c r="EQ25" t="inlineStr"/>
+      <c r="ER25" t="inlineStr"/>
+      <c r="ES25" t="inlineStr"/>
+      <c r="ET25" t="inlineStr"/>
+      <c r="EU25" t="inlineStr"/>
+      <c r="EV25" t="inlineStr"/>
+      <c r="EW25" t="inlineStr"/>
+      <c r="EX25" t="inlineStr"/>
+      <c r="EY25" t="inlineStr"/>
+      <c r="EZ25" t="inlineStr"/>
+      <c r="FA25" t="inlineStr"/>
+      <c r="FB25" t="inlineStr"/>
+      <c r="FC25" t="inlineStr"/>
+      <c r="FD25" t="inlineStr"/>
+      <c r="FE25" t="inlineStr"/>
+      <c r="FF25" t="inlineStr"/>
+      <c r="FG25" t="inlineStr"/>
+      <c r="FH25" t="inlineStr"/>
+      <c r="FI25" t="inlineStr"/>
+      <c r="FJ25" t="inlineStr"/>
+      <c r="FK25" t="inlineStr"/>
+      <c r="FL25" t="inlineStr"/>
+      <c r="FM25" t="inlineStr"/>
+      <c r="FN25" t="inlineStr"/>
+      <c r="FO25" t="inlineStr"/>
+      <c r="FP25" t="inlineStr"/>
+      <c r="FQ25" t="inlineStr"/>
+      <c r="FR25" t="inlineStr"/>
+      <c r="FS25" t="inlineStr"/>
+      <c r="FT25" t="inlineStr"/>
+      <c r="FU25" t="inlineStr"/>
+      <c r="FV25" t="inlineStr"/>
+      <c r="FW25" t="inlineStr"/>
+      <c r="FX25" t="inlineStr"/>
+      <c r="FY25" t="inlineStr"/>
+      <c r="FZ25" t="inlineStr"/>
+      <c r="GA25" t="inlineStr"/>
+      <c r="GB25" t="inlineStr"/>
+      <c r="GC25" t="inlineStr"/>
+      <c r="GD25" t="inlineStr"/>
+      <c r="GE25" t="inlineStr"/>
+      <c r="GF25" t="inlineStr"/>
+      <c r="GG25" t="inlineStr"/>
+      <c r="GH25" t="inlineStr"/>
+      <c r="GI25" t="inlineStr"/>
+      <c r="GJ25" t="inlineStr"/>
+      <c r="GK25" t="inlineStr"/>
+      <c r="GL25" t="inlineStr"/>
+      <c r="GM25" t="inlineStr"/>
+      <c r="GN25" t="inlineStr"/>
+      <c r="GO25" t="inlineStr"/>
+      <c r="GP25" t="inlineStr"/>
+      <c r="GQ25" t="inlineStr"/>
+      <c r="GR25" t="inlineStr"/>
+      <c r="GS25" t="inlineStr"/>
+      <c r="GT25" t="inlineStr"/>
+      <c r="GU25" t="inlineStr"/>
+      <c r="GV25" t="inlineStr"/>
+      <c r="GW25" t="inlineStr"/>
+      <c r="GX25" t="inlineStr"/>
+      <c r="GY25" t="inlineStr"/>
+      <c r="GZ25" t="inlineStr"/>
+      <c r="HA25" t="inlineStr"/>
+      <c r="HB25" t="inlineStr"/>
+      <c r="HC25" t="inlineStr"/>
+      <c r="HD25" t="inlineStr"/>
+      <c r="HE25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
